--- a/SupplementaryTables/Supplementary Table 9.xlsx
+++ b/SupplementaryTables/Supplementary Table 9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddabl\Documents\Network\drugs\drg1_paper\supp\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsiwo/Desktop/NatureMachineIntelligenceFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A869EA-8538-4EC9-8A5D-77F0B2E42137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB321143-48C2-294B-9F3A-46E0A0D15160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRT_NN_tanimoto_sort" sheetId="1" r:id="rId1"/>
@@ -1885,15 +1885,15 @@
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.33203125" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="52.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0.97435897588729803</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0.97142857313156095</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0.92307692766189497</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0.91891890764236395</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>0.91428571939468295</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0.80952382087707497</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0.79069769382476796</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0.79069769382476796</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>0.77499997615814198</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0.76595747470855702</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>0.755102038383483</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>0.75471699237823398</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0.74418604373931796</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>0.74418604373931796</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>0.74358975887298495</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>0.73170733451843195</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0.73076921701431197</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0.727272748947143</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0.72549021244048995</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0.71698111295699996</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0.71698111295699996</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>0.77777779102325395</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>0.71111112833023005</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0.707317054271698</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>0.707317054271698</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>0.70370370149612405</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>0.69811320304870605</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>0.69811320304870605</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>0.69811320304870605</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>0.69387757778167702</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0.69090908765792802</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>0.68965518474578802</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>0.70212763547897294</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>0.67924529314041104</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0.67857140302658003</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>0.91891890764236395</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>0.67441862821578902</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>0.67391306161880404</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0.67391306161880404</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>0.67391306161880404</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0.67391306161880404</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>0.67272728681564298</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>0.67272728681564298</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0.66666668653488104</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>0.66666668653488104</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0.66666668653488104</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>0.65957444906234697</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0.659090936183929</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>0.65217393636703402</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0.65217393636703402</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>0.72340422868728604</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>0.659090936183929</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>0.64444446563720703</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>0.64444446563720703</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0.64285713434219305</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>0.630434811115264</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>0.630434811115264</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>0.68627452850341797</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>0.62711864709854104</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>0.62222224473953203</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>0.61666667461395197</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>0.67307692766189497</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>0.61538463830947798</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0.613636374473571</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0.73170733451843195</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>0.73170733451843195</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>0.60465115308761597</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0.60416668653488104</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0.60869562625884999</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>0.60000002384185702</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0.60000002384185702</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>0.59322035312652499</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>0.71428573131561202</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>0.71428573131561202</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0.59016394615173295</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>0.58928573131561202</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0.58823531866073597</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>0.58730161190032903</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>0.61224490404128995</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>0.58695650100707997</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0.58490568399429299</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0.58333331346511796</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>0.58139532804489102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0.57446807622909501</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0.57142859697341897</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0.57142859697341897</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>0.568181812763214</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>0.568181812763214</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0.56603771448135298</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0.56521737575530995</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>0.56521737575530995</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>0.62264150381088201</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0.72500002384185702</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>0.55769228935241699</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>0.55555558204650801</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>0.55555558204650801</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>0.55319148302078203</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>0.55102038383483798</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>0.549019634723663</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>0.54347825050354004</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>0.65217393636703402</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0.53703701496124201</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>0.53333336114883401</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>0.55769228935241699</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>0.57446807622909501</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0.52173912525177002</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0.52941179275512695</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>0.51785713434219305</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>0.511111140251159</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>0.511111140251159</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0.53333336114883401</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>0.510204076766967</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0.510204076766967</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>0.510204076766967</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>0.510204076766967</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>0.53030300140380804</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0.52173912525177002</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>0.511111140251159</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0.49275362491607599</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>0.49206349253654402</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0.49090909957885698</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>0.48936170339584301</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>0.48936170339584301</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>0.479999989271163</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>0.522727251052856</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0.48837208747863697</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>0.63829785585403398</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0.47169810533523499</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0.47169810533523499</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>0.471428573131561</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0.53191488981246904</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>0.510204076766967</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0.47058823704719499</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>0.477272719144821</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>0.46666666865348799</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0.51162791252136197</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>0.46428570151329002</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0.46153846383094699</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>0.46153846383094699</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0.488888889551162</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>0.46666666865348799</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>0.46666666865348799</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>0.57142859697341897</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>0.451612889766693</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>0.450980395078659</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>0.51063829660415605</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0.479999989271163</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>0.47916665673255898</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>0.45652174949645902</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0.44642856717109602</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>0.44444444775581299</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0.45588234066963101</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>0.44230768084526001</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>0.44117647409438998</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>0.43999999761581399</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>0.45614033937454201</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>0.489795923233032</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>0.47916665673255898</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>0.460317462682724</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0.52941179275512695</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>0.52941179275512695</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0.52830189466476396</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>0.43548387289047202</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0.43396225571632302</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>0.440677970647811</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>0.42622950673103299</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>0.43636363744735701</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0.42622950673103299</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>0.43137255311012201</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>0.50909090042114202</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0.44230768084526001</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0.454545468091964</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>0.42307692766189497</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>0.41379311680793701</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>0.46511629223823497</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>0.46511629223823497</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>0.41999998688697798</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>3</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>0.41071429848670898</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>0.40983605384826599</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>0.41269841790199202</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>0.44680851697921697</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>0.40322580933570801</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>0.39024388790130599</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>0.41071429848670898</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>0.42592594027519198</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>0.40476191043853699</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>0.41818180680274902</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>3</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>0.380952388048172</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0.42553192377090399</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>10</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>0.47272726893424899</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0.38983049988746599</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>0.41860464215278598</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>0.38235294818878102</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>0.37254902720451299</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>3</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>0.390625</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>0.40476191043853699</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>0.41666665673255898</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>0.36538460850715598</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>0.36666667461395203</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>0.346153855323791</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>0.34999999403953502</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>0.42857143282890298</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>0.396226406097412</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>3</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>0.36764705181121798</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>0.359375</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>0.340909093618392</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>0.32786884903907698</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>0.38181817531585599</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>0.34545454382896401</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>0.34782609343528698</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0.323529422283172</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>0.33898305892944303</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>0.318181812763214</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>0.37037035822868303</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>0.31944444775581299</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>0.34000000357627802</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>0.30000001192092801</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>0.29850745201110801</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>0.29508197307586598</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>0.31666666269302302</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0.295454531908035</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>0.295454531908035</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>0.27906978130340498</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>0.30357143282890298</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>10</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>0.27868852019309998</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>3</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>0.30769231915473899</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>0.35416665673255898</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>0.28070175647735501</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>10</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>0.27659574151039101</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>0.26415094733238198</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>0.35714286565780601</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0.29824560880661</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>0.32142856717109602</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>0.272727280855178</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>0.26530611515045099</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>3</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>0.28070175647735501</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0.266666680574417</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>0.25423729419708202</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>0.30434781312942499</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>0.27692309021949701</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>0.29508197307586598</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>0.26530611515045099</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0.240740746259689</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>0.25423729419708202</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>10</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>0.237288132309913</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0.24137930572032901</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>0.25531914830207803</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>3</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>0.266666680574417</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>0.234375</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>3</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>0.28888890147209101</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>0.244897961616516</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>3</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>0.22784809768199901</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>0.244897961616516</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>0.23076923191547299</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>0.39583334326744002</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>10</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>0.237288132309913</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>0.23214285075664501</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>0.25454545021057101</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0.27777779102325401</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>0.24193547666072801</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>3</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0.233333334326744</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>0.225352108478546</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>0.22413793206214899</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>0.220338985323905</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0.245283022522926</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>10</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>0.21666666865348799</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>0.21666666865348799</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>0.20408163964748299</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>0.20370370149612399</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>0.32608696818351701</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>6</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>0.22666667401790599</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>0.236842110753059</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>0.20588235557079301</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>0.20967741310596399</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>0.190476194024086</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>0.20338982343673701</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>10</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>0.21212121844291601</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>10</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>0.239999994635581</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>0.190476194024086</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.176470592617988</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>3</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>0.240740746259689</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>4</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>0.18518517911434099</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>0.19672131538391099</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>10</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>0.18965516984462699</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>4</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>0.19696970283985099</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>3</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>0.20408163964748299</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>4</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>0.19672131538391099</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>3</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>0.18333333730697601</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>0.17910447716712899</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>3</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>0.16666667163372001</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>3</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>0.20689655840396801</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>0.235294118523597</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>6</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>0.158730164170265</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>0.23809523880481701</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>3</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>0.204545453190803</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -6553,7 +6553,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F320">
+  <sortState ref="A2:F320">
     <sortCondition descending="1" ref="D2:D320"/>
   </sortState>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0" footer="0"/>
